--- a/mmt2.chot.xlsx
+++ b/mmt2.chot.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap Trinh Windows\Elearning-Test\Documents\MMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\vb6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15345" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1795,21 +1795,6 @@
     <t>Ý nghĩa cơ bản nhất của mạng máy tính là gì?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cả ba  trên đúng *</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Khoa học và công nghệ về lĩnh vực máy tính và truyền thông phát triển</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Khối lượng thông tin lưu trên máy tính ngày càng tăng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nhu cầu trao đổi thông tin ngày càng tăng </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nguyên nhân cơ bản nào dẫn đến sự  ra đời của mạng máy tính?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mạng dạng hình sao là gì?  </t>
   </si>
   <si>
@@ -1883,6 +1868,21 @@
   </si>
   <si>
     <t xml:space="preserve">       * Các máy tính và các thiết bị được nối với nhau bởi thiết bị xử lý truyền   thông trung tâm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Câu: Nguyên nhân cơ bản nào dẫn đến sự  ra đời của mạng máy tính?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Nhu cầu trao đổi thông tin ngày càng tăng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Khối lượng thông tin lưu trên máy tính ngày càng tăng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Khoa học và công nghệ về lĩnh vực máy tính và truyền thông phát triển</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Cả ba  trên đúng *</t>
   </si>
 </sst>
 </file>
@@ -2236,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A681" workbookViewId="0">
-      <selection activeCell="A691" sqref="A691"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,27 +2247,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
     </row>
     <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
     </row>
     <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="383" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4172,22 +4172,22 @@
     </row>
     <row r="386" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
     </row>
     <row r="453" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
     </row>
     <row r="458" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
     </row>
     <row r="463" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4582,7 +4582,7 @@
     </row>
     <row r="468" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4597,7 +4597,7 @@
     </row>
     <row r="471" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
     </row>
     <row r="474" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4637,7 +4637,7 @@
     </row>
     <row r="479" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4657,7 +4657,7 @@
     </row>
     <row r="483" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
     </row>
     <row r="488" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
     </row>
     <row r="504" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="509" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
     </row>
     <row r="530" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -5122,22 +5122,22 @@
     </row>
     <row r="576" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
     </row>
     <row r="686" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
